--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albi/PycharmProjects/Flight-Dynamics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/SVV flight dynamics git/SVV-flight-dynamics-B22/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,16 +456,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -476,7 +476,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1108,10 @@
       <c r="B28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f>19*60+17</f>
+        <v>1157</v>
+      </c>
       <c r="D28" s="2">
         <v>5010</v>
       </c>
@@ -1135,10 +1138,13 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <f>21*60+37</f>
+        <v>1297</v>
+      </c>
       <c r="D29" s="2">
         <v>5020</v>
       </c>
